--- a/biology/Médecine/Puce_seringue/Puce_seringue.xlsx
+++ b/biology/Médecine/Puce_seringue/Puce_seringue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les puces seringue, sont des implants électroniques destinés à injecter, ou répandre, des produits dans le corps d'humains ou d'animaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces puces peuvent être implantées à différents endroits du corps humains, et dans certains organes spécifiques, en fonction de l'utilisation du produit qu'elles injectent ou répandent.
 Elles peuvent être utilisées dans le domaine médical et répandre des médicaments dans l'organisme.
